--- a/metrics/R2/Retinopatía proliferativa.xlsx
+++ b/metrics/R2/Retinopatía proliferativa.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9945205592776668</v>
+        <v>0.9941926134706534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9945851202170265</v>
+        <v>0.9944169140506466</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9943941224887254</v>
+        <v>0.9944757551700649</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9956093875370089</v>
+        <v>0.9956095007234073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9956093644183936</v>
+        <v>0.9956093491478256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9956093635460506</v>
+        <v>0.9956093390581503</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9686112983248083</v>
+        <v>0.962151635987567</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9673801510432629</v>
+        <v>0.9655057756592421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9650477706401172</v>
+        <v>0.9682829958002764</v>
       </c>
     </row>
   </sheetData>
